--- a/Data/全部数据/原始excel/k=2.0/cxq早上2hz_20160728_111220_ASIC_EEG.xlsx
+++ b/Data/全部数据/原始excel/k=2.0/cxq早上2hz_20160728_111220_ASIC_EEG.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\k=2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第一组" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,19 +99,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,9 +206,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -241,9 +241,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -427,7 +427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,9 +442,9 @@
       <selection sqref="A1:W873"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>408</v>
       </c>
@@ -586,7 +586,7 @@
         <v>111220</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>921</v>
       </c>
@@ -657,7 +657,7 @@
         <v>111221</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1434</v>
       </c>
@@ -728,7 +728,7 @@
         <v>111222</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1947</v>
       </c>
@@ -799,7 +799,7 @@
         <v>111223</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2460</v>
       </c>
@@ -870,7 +870,7 @@
         <v>111224</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2973</v>
       </c>
@@ -941,7 +941,7 @@
         <v>111225</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3486</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>111226</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3999</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>111227</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4512</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>111228</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5025</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>111229</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5538</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>111230</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6051</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>111231</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6564</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>111232</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7077</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>111233</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7590</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>111234</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8103</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>111235</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8616</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>111236</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9129</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>111237</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9642</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>111238</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10155</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>111239</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10668</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>111240</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11181</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>111241</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11694</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>111242</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12207</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>111243</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12720</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>111244</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13233</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>111245</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13746</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>111246</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14259</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>111247</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14772</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>111248</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15285</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>111249</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15798</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>111250</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16311</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>111251</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>16824</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>111252</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17337</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>111253</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17850</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>111254</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18363</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>111255</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>18876</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>111256</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>19389</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>111257</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>19902</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>111258</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20415</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>111259</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20928</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>111300</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21441</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>111301</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21954</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>111302</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22467</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>111303</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>22980</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>111304</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>23493</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>111305</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24006</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>111306</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24519</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>111307</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25032</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>111308</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>25545</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>111309</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>26058</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>111310</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>26571</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>111311</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>27084</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>111312</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27597</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>111313</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>28110</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>111314</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>28623</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>111315</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>29136</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>111316</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>29649</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>111317</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>30162</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>111318</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>30675</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>111319</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>31188</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>111320</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>31701</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>111321</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>32214</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>111322</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>32727</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>111323</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>33240</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>111324</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>33753</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>111325</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>34266</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>111326</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>34779</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>111327</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>35292</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>111328</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>35805</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>111329</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>36318</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>111330</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>36831</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>111331</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>37344</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>111332</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>37857</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>111333</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38370</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>111334</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38883</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>111335</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>39396</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>111336</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39909</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>111337</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40422</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>111338</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>40935</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>111339</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>41448</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>111340</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>41961</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>111341</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>42474</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>111342</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>42987</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>111343</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>43500</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>111344</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>44013</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>111345</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>44526</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>111346</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>45039</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>111347</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>45552</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>111348</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>46065</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>111349</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>46578</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>111350</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>47091</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>111351</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>47604</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>111352</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>48117</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>111353</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>49143</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>111355</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>51195</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>111359</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>51708</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>111400</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>52221</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>111401</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>52734</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>111402</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>53247</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>111403</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>53760</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>111404</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>54273</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>111405</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>54786</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>111406</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>55299</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>111407</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>55812</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>111408</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>56325</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>111409</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>56838</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>111410</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>57351</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>111411</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>57864</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>111412</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>58377</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>111413</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>58890</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>111414</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>59403</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>111415</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>59916</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>111416</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>60429</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>111417</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>60942</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>111418</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>61455</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>111419</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>61968</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>111420</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>62481</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>111421</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>62994</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>111422</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>63507</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>111423</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>64020</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>111424</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>64533</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>111425</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>65046</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>111426</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>65559</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>111427</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>66072</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>111428</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>66585</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>111429</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>67098</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>111430</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>67611</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>111431</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>68124</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>111432</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>68637</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>111433</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>69150</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>111434</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>69663</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>111435</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>70176</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>111436</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>70689</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>111437</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>71202</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>111438</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>71715</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>111439</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>72228</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>111440</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>72741</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>111441</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>73254</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>111442</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>73767</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>111443</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>74280</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>111444</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>74793</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>111445</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>75306</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>111446</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>75819</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>111447</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>76332</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>111448</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>76845</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>111449</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>77358</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>111450</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>77871</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>111451</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>78384</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>111452</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>78897</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>111453</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>79410</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>111454</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>79923</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>111455</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>80436</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>111456</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>80949</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>111457</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>81462</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>111458</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>82488</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>111500</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>83001</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>111501</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>83514</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>111502</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>84027</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>111503</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>84540</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>111504</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>85053</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>111505</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>85566</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>111506</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>86079</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>111507</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>86592</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>111508</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>87105</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>111509</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>87618</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>111510</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>88644</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>111512</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>90183</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>111515</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>90696</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>111516</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>91209</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>111517</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>91722</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>111518</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>92235</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>111519</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>92748</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>111520</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>93261</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>111521</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>93774</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>111522</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>94287</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>111523</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>94800</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>111524</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>95313</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>111524</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>95826</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>111526</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>96339</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>111527</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>96852</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>111527</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>97365</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>111528</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>97878</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>111529</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>98391</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>111530</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>98904</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>111531</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>99417</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>111532</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>100443</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>111534</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>100956</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>111535</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>101469</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>111536</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>101982</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>111537</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>102495</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>111538</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>103008</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>111539</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>103521</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>111540</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>104547</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>111542</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>105060</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>111543</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>105573</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>111544</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>106086</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>111545</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>106599</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>111546</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>107112</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>111547</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>107625</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>111548</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>108138</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>111549</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>108651</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>111550</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>109164</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>111551</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>109677</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>111552</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>110190</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>111553</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>110703</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>111554</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>111216</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>111555</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>111729</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>111556</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>112242</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>111557</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>112755</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>111558</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>113268</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>111559</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>113781</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>111600</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>114294</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>111601</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>114807</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>111602</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>115320</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>111603</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>115833</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>111604</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>116346</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>111605</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>116859</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>111606</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>117372</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>111607</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>117885</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>111608</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>118398</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>111609</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>118911</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>111610</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>119424</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>111611</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>119937</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>111612</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>120450</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>111613</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>120963</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>111614</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>123015</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>111618</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>123528</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>111619</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>124041</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>111620</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>124554</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>111621</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>125067</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>111622</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>125580</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>111623</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>126093</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>111624</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>126606</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>111625</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>127119</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>111626</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>127632</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>111627</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>128145</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>111628</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>128658</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>111629</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>129171</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>111630</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>129684</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>111631</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>130197</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>111632</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>130710</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>111633</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>131223</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>111634</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>131736</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>111635</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>132249</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>111636</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>132762</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>111637</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>133275</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>111638</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>133788</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>111639</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>134301</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>111640</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>134814</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>111641</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>135327</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>111642</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>135840</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>111643</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>136353</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>111644</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>136866</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>111645</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>137379</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>111646</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>137892</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>111647</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>138405</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>111648</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>138918</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>111649</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>139431</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>111650</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>139944</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>111651</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>140457</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>111652</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>140970</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>111653</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>141996</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>111655</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>142509</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>111656</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>143022</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>111657</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>144561</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>111700</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>145074</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>111701</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>145587</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>111702</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>146100</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>111703</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>147126</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>111705</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>147639</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>111706</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>148152</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>111707</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>149178</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>111709</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>149691</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>111710</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>150204</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>111711</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>150717</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>111712</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>151230</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>111713</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>151743</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>111714</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>152256</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>111715</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>152769</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>111716</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>153282</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>111717</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>153795</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>111718</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>154308</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>111719</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>154821</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>111720</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>155334</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>111721</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>155847</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>111722</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>156360</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>111723</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>156873</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>111724</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>157386</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>111725</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>157899</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>111726</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>158412</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>111727</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>158925</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>111728</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>159438</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>111729</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>159951</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>111730</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>160464</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>111731</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>160977</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>111732</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>161490</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>111733</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>162003</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>111734</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>162516</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>111735</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>163029</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>111736</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>163542</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>111737</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>164055</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>111738</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>164568</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>111739</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>165081</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>111740</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>165594</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>111741</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>166107</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>111742</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>166620</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>111743</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>167133</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>111744</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>167646</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>111745</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>168159</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>111746</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>168672</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>111747</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>169185</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>111748</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>169698</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>111749</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>170211</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>111750</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>170724</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>111751</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>171237</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>111752</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>171750</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>111753</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>172263</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>111754</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>172776</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>111755</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>173289</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>111756</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>173802</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>111757</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>174315</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>111758</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>174828</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>111759</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>175341</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>111800</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>175854</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>111801</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>176367</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>111802</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>176880</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>111803</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>177393</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>111804</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>178419</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>111806</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>178932</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>111807</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>179445</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>111808</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>179958</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>111809</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>180471</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>111810</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>180984</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>111811</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>181497</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>111812</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>182010</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>111813</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>182523</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>111814</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>183036</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>111815</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>183549</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>111816</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>184062</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>111817</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>184575</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>111818</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>185088</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>111819</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>185601</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>111820</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>186114</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>111821</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>186627</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>111822</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>187140</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>111823</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>187653</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>111824</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>188166</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>111825</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>188679</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>111826</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>189192</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>111827</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>189705</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>111828</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>190218</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>111829</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>190731</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>111830</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>191244</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>111831</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>191757</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>111832</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>192270</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>111833</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>192783</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>111834</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>193296</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>111835</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>193809</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>111836</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>194322</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>111837</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>194835</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>111838</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>195348</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>111839</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>195861</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>111840</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>196374</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>111841</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>196887</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>111842</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>197400</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>111843</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>198939</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>111846</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>199452</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>111846</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>199965</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>111847</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>200478</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>111848</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>200991</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>111849</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>201504</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>111850</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>202017</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>111851</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>202530</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>111852</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>203043</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>111853</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>203556</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>111854</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>204069</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>111855</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>204582</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>111856</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>205095</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>111857</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>205608</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>111858</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>206121</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>111859</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>206634</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>207147</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>111901</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>207660</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>111902</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>208173</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>111903</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>208686</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>111904</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>209199</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>111905</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>209712</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>111906</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>210225</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>111907</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>210738</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>111908</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>211251</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>111909</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>211764</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>111910</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>212277</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>111911</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>212790</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>111912</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>213303</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>111913</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>213816</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>111914</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>214329</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>111915</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>214842</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>111916</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>215355</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>111917</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>215868</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>111918</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>216381</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>111919</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>216894</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>111920</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>217407</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>111921</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>217920</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>111922</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>218433</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>111923</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>218946</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>111924</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>219459</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>111925</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>219972</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>111926</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>220485</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>111927</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>220998</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>111928</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>221511</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>111929</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>222024</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>111930</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>222537</v>
       </c>
@@ -29838,7 +29838,7 @@
         <v>111931</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>223050</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>111932</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>223563</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>111933</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>224076</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>111934</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>224589</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>111935</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>225102</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>111936</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>225615</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>111937</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>226128</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>111938</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>226641</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>111939</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>227154</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>111940</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>227667</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>111941</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>228180</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>111942</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>228693</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>111943</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>229206</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>111944</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>229719</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>111945</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>230232</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>111946</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>230745</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>111947</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>231258</v>
       </c>
@@ -31045,7 +31045,7 @@
         <v>111948</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>231771</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>111949</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>232284</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>111950</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>232797</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>111951</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>233310</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>111952</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>233823</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>111953</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>234336</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>234849</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>111955</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>235362</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>111956</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>235875</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>111957</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>236388</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>111958</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>236901</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>111959</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>237414</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>237927</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>112001</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>238440</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>112002</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>238953</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>112003</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>239466</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>112004</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>239979</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>112005</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>240492</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>112006</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>241005</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>112007</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>241518</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>112008</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>242031</v>
       </c>
@@ -32536,7 +32536,7 @@
         <v>112009</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>242544</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>112010</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>243057</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>112011</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>243570</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>112012</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>244083</v>
       </c>
@@ -32820,7 +32820,7 @@
         <v>112013</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>244596</v>
       </c>
@@ -32891,7 +32891,7 @@
         <v>112014</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>245109</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>112015</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>245622</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>112016</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>246135</v>
       </c>
@@ -33104,7 +33104,7 @@
         <v>112017</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>246648</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>112018</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>247161</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>112019</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>247674</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>112020</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>248187</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>112021</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>248700</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>112022</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>249213</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>112023</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>249726</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>112024</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>250239</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>112025</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>250752</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>112026</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>251265</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>112027</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>251778</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>112028</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>252291</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>112029</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>252804</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>112030</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>253317</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>112031</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>253830</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>112032</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>254343</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>112033</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>254856</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>112034</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>255369</v>
       </c>
@@ -34382,7 +34382,7 @@
         <v>112035</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>255882</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>112036</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>256395</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>112037</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>256908</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>112038</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>257421</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>112039</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>257934</v>
       </c>
@@ -34737,7 +34737,7 @@
         <v>112040</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>258447</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>112041</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>258960</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>112042</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>259473</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>112043</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>259986</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>112044</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>260499</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>112045</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>261012</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>112046</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>261525</v>
       </c>
@@ -35234,7 +35234,7 @@
         <v>112047</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>262038</v>
       </c>
@@ -35305,7 +35305,7 @@
         <v>112048</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>262551</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>112049</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>263064</v>
       </c>
@@ -35447,7 +35447,7 @@
         <v>112050</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>263577</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>112051</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>264090</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>112052</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>264603</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>112053</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>265116</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>112054</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>265629</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>112055</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>266142</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>112056</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>266655</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>112057</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>267168</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>112058</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>267681</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>112059</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>268194</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>112100</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>268707</v>
       </c>
@@ -36228,7 +36228,7 @@
         <v>112101</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>269220</v>
       </c>
@@ -36299,7 +36299,7 @@
         <v>112102</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>269733</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>112103</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>270246</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>112104</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>270759</v>
       </c>
@@ -36512,7 +36512,7 @@
         <v>112105</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>271272</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>112106</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>271785</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>112107</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>272298</v>
       </c>
@@ -36725,7 +36725,7 @@
         <v>112108</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>272811</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>112109</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>273324</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>112110</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>273837</v>
       </c>
@@ -36938,7 +36938,7 @@
         <v>112111</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>274350</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>112112</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>274863</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>112113</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>275376</v>
       </c>
@@ -37151,7 +37151,7 @@
         <v>112114</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>275889</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>112115</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>276402</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>112116</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>276915</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>112117</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>277428</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>112118</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>277941</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>112119</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>278454</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>112120</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>278967</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>112121</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>279480</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>112122</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>279993</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>112123</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>280506</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>112124</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>281019</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>112125</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>281532</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>112126</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>282045</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>112127</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>282558</v>
       </c>
@@ -38145,7 +38145,7 @@
         <v>112128</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>283071</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>112129</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>283584</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>112130</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>284097</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>112131</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>284610</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>112132</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>285123</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>112133</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>285636</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>112134</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>286149</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>112135</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>286662</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>112136</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>287175</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>112137</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>287688</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>112138</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>288201</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>112139</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>288714</v>
       </c>
@@ -38997,7 +38997,7 @@
         <v>112140</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>289227</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>112141</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>289740</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>112142</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>290253</v>
       </c>
@@ -39210,7 +39210,7 @@
         <v>112143</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>290766</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>112144</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>291279</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>112145</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>291792</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>112146</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>292305</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>112147</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>292818</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>112148</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>293331</v>
       </c>
@@ -39636,7 +39636,7 @@
         <v>112149</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>293844</v>
       </c>
@@ -39707,7 +39707,7 @@
         <v>112150</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>294357</v>
       </c>
@@ -39778,7 +39778,7 @@
         <v>112151</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>294870</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>112152</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>295383</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>112153</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>295896</v>
       </c>
@@ -39991,7 +39991,7 @@
         <v>112154</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>296409</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>112155</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>296922</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>112156</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>297435</v>
       </c>
@@ -40204,7 +40204,7 @@
         <v>112157</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>297948</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>112158</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>298461</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>112159</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>298974</v>
       </c>
@@ -40417,7 +40417,7 @@
         <v>112200</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>299487</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>112201</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>300000</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>112202</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>300513</v>
       </c>
@@ -40630,7 +40630,7 @@
         <v>112203</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>301026</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>112204</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>301539</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>112205</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>302052</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>112205</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>302565</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>112206</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>303078</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>112207</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>303591</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>112208</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>304104</v>
       </c>
@@ -41127,7 +41127,7 @@
         <v>112209</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>304617</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>112210</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>305130</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>112211</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>305643</v>
       </c>
@@ -41340,7 +41340,7 @@
         <v>112212</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>306156</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>112213</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>306669</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>112214</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>307182</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>112215</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>307695</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>112216</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>308208</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>112217</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>308721</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>112218</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>309234</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>112219</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>309747</v>
       </c>
@@ -41908,7 +41908,7 @@
         <v>112220</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>310260</v>
       </c>
@@ -41979,7 +41979,7 @@
         <v>112221</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>310773</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>112222</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>311286</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>112223</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>311799</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>112224</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>312312</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>112225</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>312825</v>
       </c>
@@ -42334,7 +42334,7 @@
         <v>112226</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>313338</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>112227</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>313851</v>
       </c>
@@ -42476,7 +42476,7 @@
         <v>112228</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>314364</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>112229</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>314877</v>
       </c>
@@ -42618,7 +42618,7 @@
         <v>112230</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>315390</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>112231</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>315903</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>112232</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>316416</v>
       </c>
@@ -42831,7 +42831,7 @@
         <v>112233</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>316929</v>
       </c>
@@ -42902,7 +42902,7 @@
         <v>112234</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>317442</v>
       </c>
@@ -42973,7 +42973,7 @@
         <v>112235</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>317955</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>112236</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>318468</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>112237</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>318981</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>112238</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>319494</v>
       </c>
@@ -43257,7 +43257,7 @@
         <v>112239</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>320007</v>
       </c>
@@ -43328,7 +43328,7 @@
         <v>112240</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>320520</v>
       </c>
@@ -43399,7 +43399,7 @@
         <v>112241</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>321033</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>112242</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>321546</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>112243</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>322059</v>
       </c>
@@ -43612,7 +43612,7 @@
         <v>112244</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>322572</v>
       </c>
@@ -43683,7 +43683,7 @@
         <v>112245</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>323085</v>
       </c>
@@ -43754,7 +43754,7 @@
         <v>112246</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>323598</v>
       </c>
@@ -43825,7 +43825,7 @@
         <v>112247</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>324111</v>
       </c>
@@ -43896,7 +43896,7 @@
         <v>112248</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>324624</v>
       </c>
@@ -43967,7 +43967,7 @@
         <v>112249</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>325137</v>
       </c>
@@ -44038,7 +44038,7 @@
         <v>112250</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>325650</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>112251</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>326163</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>112252</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>326676</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>112253</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>327189</v>
       </c>
@@ -44322,7 +44322,7 @@
         <v>112254</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>327702</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>112255</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>328215</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>112256</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>328728</v>
       </c>
@@ -44535,7 +44535,7 @@
         <v>112257</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>329241</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>112258</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>329754</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>112259</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>330267</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>112300</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>330780</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>112301</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>331293</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>112302</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>331806</v>
       </c>
@@ -44961,7 +44961,7 @@
         <v>112303</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>332319</v>
       </c>
@@ -45032,7 +45032,7 @@
         <v>112304</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>332832</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>112305</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>333345</v>
       </c>
@@ -45174,7 +45174,7 @@
         <v>112306</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>333858</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>112307</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>334371</v>
       </c>
@@ -45316,7 +45316,7 @@
         <v>112308</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>334884</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>112309</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>335397</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>112310</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>335910</v>
       </c>
@@ -45529,7 +45529,7 @@
         <v>112311</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>336423</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>112312</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>336936</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>112313</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>337449</v>
       </c>
@@ -45742,7 +45742,7 @@
         <v>112314</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>337962</v>
       </c>
@@ -45813,7 +45813,7 @@
         <v>112315</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>338475</v>
       </c>
@@ -45884,7 +45884,7 @@
         <v>112316</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>338988</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>112317</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>339501</v>
       </c>
@@ -46026,7 +46026,7 @@
         <v>112318</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>340014</v>
       </c>
@@ -46097,7 +46097,7 @@
         <v>112319</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>340527</v>
       </c>
@@ -46168,7 +46168,7 @@
         <v>112320</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>341040</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>112321</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>341553</v>
       </c>
@@ -46310,7 +46310,7 @@
         <v>112322</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>342066</v>
       </c>
@@ -46381,7 +46381,7 @@
         <v>112323</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>342579</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>112324</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>343092</v>
       </c>
@@ -46523,7 +46523,7 @@
         <v>112325</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>343605</v>
       </c>
@@ -46594,7 +46594,7 @@
         <v>112326</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>344118</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>112327</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>344631</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>112328</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>345144</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>112329</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>345657</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>112330</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>346170</v>
       </c>
@@ -46949,7 +46949,7 @@
         <v>112331</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>346683</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>112332</v>
       </c>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>347196</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>112333</v>
       </c>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>347709</v>
       </c>
@@ -47162,7 +47162,7 @@
         <v>112334</v>
       </c>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>348222</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>112335</v>
       </c>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>348735</v>
       </c>
@@ -47304,7 +47304,7 @@
         <v>112336</v>
       </c>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>349248</v>
       </c>
@@ -47375,7 +47375,7 @@
         <v>112337</v>
       </c>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>349761</v>
       </c>
@@ -47446,7 +47446,7 @@
         <v>112338</v>
       </c>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>350274</v>
       </c>
@@ -47517,7 +47517,7 @@
         <v>112339</v>
       </c>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>350787</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>112340</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>351300</v>
       </c>
@@ -47659,7 +47659,7 @@
         <v>112341</v>
       </c>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>351813</v>
       </c>
@@ -47730,7 +47730,7 @@
         <v>112342</v>
       </c>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>352326</v>
       </c>
@@ -47801,7 +47801,7 @@
         <v>112343</v>
       </c>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>352839</v>
       </c>
@@ -47872,7 +47872,7 @@
         <v>112344</v>
       </c>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>353352</v>
       </c>
@@ -47943,7 +47943,7 @@
         <v>112345</v>
       </c>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>353865</v>
       </c>
@@ -48014,7 +48014,7 @@
         <v>112346</v>
       </c>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>354378</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>112347</v>
       </c>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>354891</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>112348</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>355404</v>
       </c>
@@ -48227,7 +48227,7 @@
         <v>112349</v>
       </c>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>355917</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>112350</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>356430</v>
       </c>
@@ -48369,7 +48369,7 @@
         <v>112351</v>
       </c>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>356943</v>
       </c>
@@ -48440,7 +48440,7 @@
         <v>112352</v>
       </c>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>357456</v>
       </c>
@@ -48511,7 +48511,7 @@
         <v>112353</v>
       </c>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>357969</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v>112354</v>
       </c>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>358482</v>
       </c>
@@ -48653,7 +48653,7 @@
         <v>112355</v>
       </c>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>358995</v>
       </c>
@@ -48724,7 +48724,7 @@
         <v>112356</v>
       </c>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>359508</v>
       </c>
@@ -48795,7 +48795,7 @@
         <v>112357</v>
       </c>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>360021</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>112358</v>
       </c>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>360534</v>
       </c>
@@ -48937,7 +48937,7 @@
         <v>112359</v>
       </c>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>361047</v>
       </c>
@@ -49008,7 +49008,7 @@
         <v>112400</v>
       </c>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>361560</v>
       </c>
@@ -49079,7 +49079,7 @@
         <v>112401</v>
       </c>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>362073</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>112402</v>
       </c>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>362586</v>
       </c>
@@ -49221,7 +49221,7 @@
         <v>112403</v>
       </c>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>363099</v>
       </c>
@@ -49292,7 +49292,7 @@
         <v>112404</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>363612</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>112405</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>364125</v>
       </c>
@@ -49434,7 +49434,7 @@
         <v>112406</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>364638</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>112407</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>365151</v>
       </c>
@@ -49576,7 +49576,7 @@
         <v>112408</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>365664</v>
       </c>
@@ -49647,7 +49647,7 @@
         <v>112409</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>366177</v>
       </c>
@@ -49718,7 +49718,7 @@
         <v>112410</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>366690</v>
       </c>
@@ -49789,7 +49789,7 @@
         <v>112411</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>367203</v>
       </c>
@@ -49860,7 +49860,7 @@
         <v>112412</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>367716</v>
       </c>
@@ -49931,7 +49931,7 @@
         <v>112413</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>368742</v>
       </c>
@@ -50002,7 +50002,7 @@
         <v>112415</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>369255</v>
       </c>
@@ -50073,7 +50073,7 @@
         <v>112416</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>370281</v>
       </c>
@@ -50144,7 +50144,7 @@
         <v>112418</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>370794</v>
       </c>
@@ -50215,7 +50215,7 @@
         <v>112419</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>371307</v>
       </c>
@@ -50286,7 +50286,7 @@
         <v>112420</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>371820</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>112421</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>372333</v>
       </c>
@@ -50428,7 +50428,7 @@
         <v>112422</v>
       </c>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>372846</v>
       </c>
@@ -50499,7 +50499,7 @@
         <v>112423</v>
       </c>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>373359</v>
       </c>
@@ -50570,7 +50570,7 @@
         <v>112424</v>
       </c>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>374385</v>
       </c>
@@ -50641,7 +50641,7 @@
         <v>112426</v>
       </c>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>374898</v>
       </c>
@@ -50712,7 +50712,7 @@
         <v>112427</v>
       </c>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>375411</v>
       </c>
@@ -50783,7 +50783,7 @@
         <v>112428</v>
       </c>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>375924</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>112429</v>
       </c>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>376437</v>
       </c>
@@ -50925,7 +50925,7 @@
         <v>112430</v>
       </c>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>376950</v>
       </c>
@@ -50996,7 +50996,7 @@
         <v>112431</v>
       </c>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>377463</v>
       </c>
@@ -51067,7 +51067,7 @@
         <v>112432</v>
       </c>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>377976</v>
       </c>
@@ -51138,7 +51138,7 @@
         <v>112433</v>
       </c>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>378489</v>
       </c>
@@ -51209,7 +51209,7 @@
         <v>112434</v>
       </c>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>379002</v>
       </c>
@@ -51280,7 +51280,7 @@
         <v>112435</v>
       </c>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>379515</v>
       </c>
@@ -51351,7 +51351,7 @@
         <v>112436</v>
       </c>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>380028</v>
       </c>
@@ -51422,7 +51422,7 @@
         <v>112437</v>
       </c>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>380541</v>
       </c>
@@ -51493,7 +51493,7 @@
         <v>112438</v>
       </c>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>381054</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>112439</v>
       </c>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>381567</v>
       </c>
@@ -51635,7 +51635,7 @@
         <v>112440</v>
       </c>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>382080</v>
       </c>
@@ -51706,7 +51706,7 @@
         <v>112441</v>
       </c>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>382593</v>
       </c>
@@ -51777,7 +51777,7 @@
         <v>112442</v>
       </c>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>383106</v>
       </c>
@@ -51848,7 +51848,7 @@
         <v>112443</v>
       </c>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>383619</v>
       </c>
@@ -51919,7 +51919,7 @@
         <v>112444</v>
       </c>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>384132</v>
       </c>
@@ -51990,7 +51990,7 @@
         <v>112445</v>
       </c>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>384645</v>
       </c>
@@ -52061,7 +52061,7 @@
         <v>112446</v>
       </c>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>385158</v>
       </c>
@@ -52132,7 +52132,7 @@
         <v>112447</v>
       </c>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>385671</v>
       </c>
@@ -52203,7 +52203,7 @@
         <v>112448</v>
       </c>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>386184</v>
       </c>
@@ -52274,7 +52274,7 @@
         <v>112449</v>
       </c>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>386697</v>
       </c>
@@ -52345,7 +52345,7 @@
         <v>112450</v>
       </c>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>387210</v>
       </c>
@@ -52416,7 +52416,7 @@
         <v>112451</v>
       </c>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>387723</v>
       </c>
@@ -52487,7 +52487,7 @@
         <v>112452</v>
       </c>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>388236</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v>112453</v>
       </c>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>388749</v>
       </c>
@@ -52629,7 +52629,7 @@
         <v>112454</v>
       </c>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>389262</v>
       </c>
@@ -52700,7 +52700,7 @@
         <v>112455</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>389775</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>112456</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>390288</v>
       </c>
@@ -52842,7 +52842,7 @@
         <v>112457</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>390801</v>
       </c>
@@ -52913,7 +52913,7 @@
         <v>112458</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>391314</v>
       </c>
@@ -52984,7 +52984,7 @@
         <v>112459</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>391827</v>
       </c>
@@ -53055,7 +53055,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>392340</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>112501</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>392853</v>
       </c>
@@ -53197,7 +53197,7 @@
         <v>112502</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>393366</v>
       </c>
@@ -53268,7 +53268,7 @@
         <v>112503</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>393879</v>
       </c>
@@ -53339,7 +53339,7 @@
         <v>112504</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>394392</v>
       </c>
@@ -53410,7 +53410,7 @@
         <v>112505</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>394905</v>
       </c>
@@ -53481,7 +53481,7 @@
         <v>112506</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>395418</v>
       </c>
@@ -53552,7 +53552,7 @@
         <v>112507</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>395931</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>112508</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>396444</v>
       </c>
@@ -53694,7 +53694,7 @@
         <v>112509</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>396957</v>
       </c>
@@ -53765,7 +53765,7 @@
         <v>112510</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>397470</v>
       </c>
@@ -53836,7 +53836,7 @@
         <v>112511</v>
       </c>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>397983</v>
       </c>
@@ -53907,7 +53907,7 @@
         <v>112512</v>
       </c>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>398496</v>
       </c>
@@ -53978,7 +53978,7 @@
         <v>112513</v>
       </c>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>399009</v>
       </c>
@@ -54049,7 +54049,7 @@
         <v>112514</v>
       </c>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>399522</v>
       </c>
@@ -54120,7 +54120,7 @@
         <v>112515</v>
       </c>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>400035</v>
       </c>
@@ -54191,7 +54191,7 @@
         <v>112516</v>
       </c>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>400548</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>112517</v>
       </c>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>401061</v>
       </c>
@@ -54333,7 +54333,7 @@
         <v>112518</v>
       </c>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>401574</v>
       </c>
@@ -54404,7 +54404,7 @@
         <v>112519</v>
       </c>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>402087</v>
       </c>
@@ -54475,7 +54475,7 @@
         <v>112520</v>
       </c>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>402600</v>
       </c>
@@ -54546,7 +54546,7 @@
         <v>112521</v>
       </c>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>403113</v>
       </c>
@@ -54617,7 +54617,7 @@
         <v>112522</v>
       </c>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>403626</v>
       </c>
@@ -54688,7 +54688,7 @@
         <v>112523</v>
       </c>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>404139</v>
       </c>
@@ -54759,7 +54759,7 @@
         <v>112524</v>
       </c>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>404652</v>
       </c>
@@ -54830,7 +54830,7 @@
         <v>112525</v>
       </c>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>405165</v>
       </c>
@@ -54901,7 +54901,7 @@
         <v>112526</v>
       </c>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>405678</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>112526</v>
       </c>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>406191</v>
       </c>
@@ -55043,7 +55043,7 @@
         <v>112527</v>
       </c>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>406704</v>
       </c>
@@ -55114,7 +55114,7 @@
         <v>112528</v>
       </c>
     </row>
-    <row r="771" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>407217</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>112529</v>
       </c>
     </row>
-    <row r="772" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>407730</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>112530</v>
       </c>
     </row>
-    <row r="773" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>408243</v>
       </c>
@@ -55327,7 +55327,7 @@
         <v>112531</v>
       </c>
     </row>
-    <row r="774" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>408756</v>
       </c>
@@ -55398,7 +55398,7 @@
         <v>112532</v>
       </c>
     </row>
-    <row r="775" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>409269</v>
       </c>
@@ -55469,7 +55469,7 @@
         <v>112533</v>
       </c>
     </row>
-    <row r="776" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>409782</v>
       </c>
@@ -55540,7 +55540,7 @@
         <v>112534</v>
       </c>
     </row>
-    <row r="777" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>410295</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>112535</v>
       </c>
     </row>
-    <row r="778" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>410808</v>
       </c>
@@ -55682,7 +55682,7 @@
         <v>112536</v>
       </c>
     </row>
-    <row r="779" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>411321</v>
       </c>
@@ -55753,7 +55753,7 @@
         <v>112537</v>
       </c>
     </row>
-    <row r="780" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>411834</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>112538</v>
       </c>
     </row>
-    <row r="781" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>412347</v>
       </c>
@@ -55895,7 +55895,7 @@
         <v>112539</v>
       </c>
     </row>
-    <row r="782" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>412860</v>
       </c>
@@ -55966,7 +55966,7 @@
         <v>112540</v>
       </c>
     </row>
-    <row r="783" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>413373</v>
       </c>
@@ -56037,7 +56037,7 @@
         <v>112541</v>
       </c>
     </row>
-    <row r="784" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>413886</v>
       </c>
@@ -56108,7 +56108,7 @@
         <v>112542</v>
       </c>
     </row>
-    <row r="785" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>414399</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>112543</v>
       </c>
     </row>
-    <row r="786" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>414912</v>
       </c>
@@ -56250,7 +56250,7 @@
         <v>112544</v>
       </c>
     </row>
-    <row r="787" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>415425</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>112545</v>
       </c>
     </row>
-    <row r="788" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>415938</v>
       </c>
@@ -56392,7 +56392,7 @@
         <v>112546</v>
       </c>
     </row>
-    <row r="789" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>416451</v>
       </c>
@@ -56463,7 +56463,7 @@
         <v>112547</v>
       </c>
     </row>
-    <row r="790" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>416964</v>
       </c>
@@ -56534,7 +56534,7 @@
         <v>112548</v>
       </c>
     </row>
-    <row r="791" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>417477</v>
       </c>
@@ -56605,7 +56605,7 @@
         <v>112549</v>
       </c>
     </row>
-    <row r="792" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>417990</v>
       </c>
@@ -56676,7 +56676,7 @@
         <v>112550</v>
       </c>
     </row>
-    <row r="793" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>418503</v>
       </c>
@@ -56747,7 +56747,7 @@
         <v>112551</v>
       </c>
     </row>
-    <row r="794" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>419016</v>
       </c>
@@ -56818,7 +56818,7 @@
         <v>112552</v>
       </c>
     </row>
-    <row r="795" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>419529</v>
       </c>
@@ -56889,7 +56889,7 @@
         <v>112553</v>
       </c>
     </row>
-    <row r="796" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>420042</v>
       </c>
@@ -56960,7 +56960,7 @@
         <v>112554</v>
       </c>
     </row>
-    <row r="797" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>420555</v>
       </c>
@@ -57031,7 +57031,7 @@
         <v>112555</v>
       </c>
     </row>
-    <row r="798" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>421068</v>
       </c>
@@ -57102,7 +57102,7 @@
         <v>112556</v>
       </c>
     </row>
-    <row r="799" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>421581</v>
       </c>
@@ -57173,7 +57173,7 @@
         <v>112557</v>
       </c>
     </row>
-    <row r="800" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>422094</v>
       </c>
@@ -57244,7 +57244,7 @@
         <v>112558</v>
       </c>
     </row>
-    <row r="801" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>422607</v>
       </c>
@@ -57315,7 +57315,7 @@
         <v>112559</v>
       </c>
     </row>
-    <row r="802" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>423120</v>
       </c>
@@ -57386,7 +57386,7 @@
         <v>112600</v>
       </c>
     </row>
-    <row r="803" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>423633</v>
       </c>
@@ -57457,7 +57457,7 @@
         <v>112601</v>
       </c>
     </row>
-    <row r="804" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>424146</v>
       </c>
@@ -57528,7 +57528,7 @@
         <v>112602</v>
       </c>
     </row>
-    <row r="805" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>424659</v>
       </c>
@@ -57599,7 +57599,7 @@
         <v>112603</v>
       </c>
     </row>
-    <row r="806" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>425172</v>
       </c>
@@ -57670,7 +57670,7 @@
         <v>112604</v>
       </c>
     </row>
-    <row r="807" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>425685</v>
       </c>
@@ -57741,7 +57741,7 @@
         <v>112605</v>
       </c>
     </row>
-    <row r="808" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>426198</v>
       </c>
@@ -57812,7 +57812,7 @@
         <v>112606</v>
       </c>
     </row>
-    <row r="809" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>426711</v>
       </c>
@@ -57883,7 +57883,7 @@
         <v>112607</v>
       </c>
     </row>
-    <row r="810" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>427224</v>
       </c>
@@ -57954,7 +57954,7 @@
         <v>112608</v>
       </c>
     </row>
-    <row r="811" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>427737</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v>112609</v>
       </c>
     </row>
-    <row r="812" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>428250</v>
       </c>
@@ -58096,7 +58096,7 @@
         <v>112610</v>
       </c>
     </row>
-    <row r="813" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>428763</v>
       </c>
@@ -58167,7 +58167,7 @@
         <v>112611</v>
       </c>
     </row>
-    <row r="814" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>429276</v>
       </c>
@@ -58238,7 +58238,7 @@
         <v>112612</v>
       </c>
     </row>
-    <row r="815" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>429789</v>
       </c>
@@ -58309,7 +58309,7 @@
         <v>112613</v>
       </c>
     </row>
-    <row r="816" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>430302</v>
       </c>
@@ -58380,7 +58380,7 @@
         <v>112614</v>
       </c>
     </row>
-    <row r="817" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>430815</v>
       </c>
@@ -58451,7 +58451,7 @@
         <v>112615</v>
       </c>
     </row>
-    <row r="818" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>431328</v>
       </c>
@@ -58522,7 +58522,7 @@
         <v>112616</v>
       </c>
     </row>
-    <row r="819" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>431841</v>
       </c>
@@ -58593,7 +58593,7 @@
         <v>112617</v>
       </c>
     </row>
-    <row r="820" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>432354</v>
       </c>
@@ -58664,7 +58664,7 @@
         <v>112618</v>
       </c>
     </row>
-    <row r="821" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>432867</v>
       </c>
@@ -58735,7 +58735,7 @@
         <v>112619</v>
       </c>
     </row>
-    <row r="822" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>433380</v>
       </c>
@@ -58806,7 +58806,7 @@
         <v>112620</v>
       </c>
     </row>
-    <row r="823" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>433893</v>
       </c>
@@ -58877,7 +58877,7 @@
         <v>112621</v>
       </c>
     </row>
-    <row r="824" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>434406</v>
       </c>
@@ -58948,7 +58948,7 @@
         <v>112622</v>
       </c>
     </row>
-    <row r="825" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>434919</v>
       </c>
@@ -59019,7 +59019,7 @@
         <v>112623</v>
       </c>
     </row>
-    <row r="826" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>435432</v>
       </c>
@@ -59090,7 +59090,7 @@
         <v>112624</v>
       </c>
     </row>
-    <row r="827" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>435945</v>
       </c>
@@ -59161,7 +59161,7 @@
         <v>112625</v>
       </c>
     </row>
-    <row r="828" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>436458</v>
       </c>
@@ -59232,7 +59232,7 @@
         <v>112626</v>
       </c>
     </row>
-    <row r="829" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>436971</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>112627</v>
       </c>
     </row>
-    <row r="830" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>437484</v>
       </c>
@@ -59374,7 +59374,7 @@
         <v>112628</v>
       </c>
     </row>
-    <row r="831" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>437997</v>
       </c>
@@ -59445,7 +59445,7 @@
         <v>112629</v>
       </c>
     </row>
-    <row r="832" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>438510</v>
       </c>
@@ -59516,7 +59516,7 @@
         <v>112630</v>
       </c>
     </row>
-    <row r="833" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>439023</v>
       </c>
@@ -59587,7 +59587,7 @@
         <v>112631</v>
       </c>
     </row>
-    <row r="834" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>439536</v>
       </c>
@@ -59658,7 +59658,7 @@
         <v>112632</v>
       </c>
     </row>
-    <row r="835" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>440049</v>
       </c>
@@ -59729,7 +59729,7 @@
         <v>112633</v>
       </c>
     </row>
-    <row r="836" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>440562</v>
       </c>
@@ -59800,7 +59800,7 @@
         <v>112634</v>
       </c>
     </row>
-    <row r="837" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>441075</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>112635</v>
       </c>
     </row>
-    <row r="838" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>441588</v>
       </c>
@@ -59942,7 +59942,7 @@
         <v>112636</v>
       </c>
     </row>
-    <row r="839" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>442101</v>
       </c>
@@ -60013,7 +60013,7 @@
         <v>112637</v>
       </c>
     </row>
-    <row r="840" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>442614</v>
       </c>
@@ -60084,7 +60084,7 @@
         <v>112638</v>
       </c>
     </row>
-    <row r="841" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>443127</v>
       </c>
@@ -60155,7 +60155,7 @@
         <v>112639</v>
       </c>
     </row>
-    <row r="842" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>443640</v>
       </c>
@@ -60226,7 +60226,7 @@
         <v>112640</v>
       </c>
     </row>
-    <row r="843" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>444153</v>
       </c>
@@ -60297,7 +60297,7 @@
         <v>112641</v>
       </c>
     </row>
-    <row r="844" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>444666</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>112642</v>
       </c>
     </row>
-    <row r="845" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>445179</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>112643</v>
       </c>
     </row>
-    <row r="846" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>445692</v>
       </c>
@@ -60510,7 +60510,7 @@
         <v>112644</v>
       </c>
     </row>
-    <row r="847" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>446205</v>
       </c>
@@ -60581,7 +60581,7 @@
         <v>112645</v>
       </c>
     </row>
-    <row r="848" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>446718</v>
       </c>
@@ -60652,7 +60652,7 @@
         <v>112646</v>
       </c>
     </row>
-    <row r="849" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>447231</v>
       </c>
@@ -60723,7 +60723,7 @@
         <v>112647</v>
       </c>
     </row>
-    <row r="850" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>447744</v>
       </c>
@@ -60794,7 +60794,7 @@
         <v>112648</v>
       </c>
     </row>
-    <row r="851" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>448257</v>
       </c>
@@ -60865,7 +60865,7 @@
         <v>112649</v>
       </c>
     </row>
-    <row r="852" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>448770</v>
       </c>
@@ -60936,7 +60936,7 @@
         <v>112650</v>
       </c>
     </row>
-    <row r="853" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>449283</v>
       </c>
@@ -61007,7 +61007,7 @@
         <v>112651</v>
       </c>
     </row>
-    <row r="854" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>449796</v>
       </c>
@@ -61078,7 +61078,7 @@
         <v>112652</v>
       </c>
     </row>
-    <row r="855" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>450309</v>
       </c>
@@ -61149,7 +61149,7 @@
         <v>112653</v>
       </c>
     </row>
-    <row r="856" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>450822</v>
       </c>
@@ -61220,7 +61220,7 @@
         <v>112654</v>
       </c>
     </row>
-    <row r="857" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>451335</v>
       </c>
@@ -61291,7 +61291,7 @@
         <v>112655</v>
       </c>
     </row>
-    <row r="858" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>451848</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>112656</v>
       </c>
     </row>
-    <row r="859" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>452361</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>112657</v>
       </c>
     </row>
-    <row r="860" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>452874</v>
       </c>
@@ -61504,7 +61504,7 @@
         <v>112658</v>
       </c>
     </row>
-    <row r="861" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>453387</v>
       </c>
@@ -61575,7 +61575,7 @@
         <v>112659</v>
       </c>
     </row>
-    <row r="862" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>453900</v>
       </c>
@@ -61646,7 +61646,7 @@
         <v>112700</v>
       </c>
     </row>
-    <row r="863" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>454413</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>112701</v>
       </c>
     </row>
-    <row r="864" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>454926</v>
       </c>
@@ -61788,7 +61788,7 @@
         <v>112702</v>
       </c>
     </row>
-    <row r="865" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>455439</v>
       </c>
@@ -61859,7 +61859,7 @@
         <v>112703</v>
       </c>
     </row>
-    <row r="866" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>455952</v>
       </c>
@@ -61930,7 +61930,7 @@
         <v>112704</v>
       </c>
     </row>
-    <row r="867" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>456465</v>
       </c>
@@ -62001,7 +62001,7 @@
         <v>112705</v>
       </c>
     </row>
-    <row r="868" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>456978</v>
       </c>
@@ -62072,7 +62072,7 @@
         <v>112706</v>
       </c>
     </row>
-    <row r="869" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>457491</v>
       </c>
@@ -62143,7 +62143,7 @@
         <v>112707</v>
       </c>
     </row>
-    <row r="870" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>458004</v>
       </c>
@@ -62214,7 +62214,7 @@
         <v>112708</v>
       </c>
     </row>
-    <row r="871" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>458517</v>
       </c>
@@ -62285,7 +62285,7 @@
         <v>112709</v>
       </c>
     </row>
-    <row r="872" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>459030</v>
       </c>
@@ -62356,7 +62356,7 @@
         <v>112710</v>
       </c>
     </row>
-    <row r="873" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>459543</v>
       </c>
